--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -1027,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:E8"/>
+  <dimension ref="C3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E14" sqref="E14:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
@@ -1086,7 +1086,7 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5">
@@ -1097,13 +1097,114 @@
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20008</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20009</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20010</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20012</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
